--- a/Diverse geolokasjoner.xlsx
+++ b/Diverse geolokasjoner.xlsx
@@ -8,14 +8,37 @@
     <sheet state="visible" name="Tre i Norge Llama" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Sct_Jørgen_Llama" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Sct_jørgen_gpt" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Aandsliv_gpt" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B41">
+      <text>
+        <t xml:space="preserve">Litt rart at alle Greavesend har forskjellige  koordinater?
+	-Anders Skare Malvik</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E21">
+      <text>
+        <t xml:space="preserve">Wow! dette er sterkt! tror at GPT plasserte Alhambra i Spania. men det er faktisk et forlystelsessted i London
+	-Anders Skare Malvik</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="413">
   <si>
     <t>Term</t>
   </si>
@@ -1107,6 +1130,153 @@
   </si>
   <si>
     <t>KJØBENHAVN</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Nordamerika</t>
+  </si>
+  <si>
+    <t>Forenede Stater</t>
+  </si>
+  <si>
+    <t>Staten Utah</t>
+  </si>
+  <si>
+    <t>Saginaw</t>
+  </si>
+  <si>
+    <t>Rhinen</t>
+  </si>
+  <si>
+    <t>Plantager i Missouri</t>
+  </si>
+  <si>
+    <t>mississippi</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Oshkosh</t>
+  </si>
+  <si>
+    <t>san francisco</t>
+  </si>
+  <si>
+    <t>Ny Guinea</t>
+  </si>
+  <si>
+    <t>North American Review</t>
+  </si>
+  <si>
+    <t>Superiorsjøen</t>
+  </si>
+  <si>
+    <t>Yankeeland</t>
+  </si>
+  <si>
+    <t>abraham lincoln</t>
+  </si>
+  <si>
+    <t>Wis.</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Asien</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>Amerikas</t>
+  </si>
+  <si>
+    <t>Westminster</t>
+  </si>
+  <si>
+    <t>den øvre Nil</t>
+  </si>
+  <si>
+    <t>Walla-Walla</t>
+  </si>
+  <si>
+    <t>georg washington</t>
+  </si>
+  <si>
+    <t>irland</t>
+  </si>
+  <si>
+    <t>de Forenede Stater</t>
+  </si>
+  <si>
+    <t>Londons Forstæder</t>
+  </si>
+  <si>
+    <t>London Times</t>
+  </si>
+  <si>
+    <t>Dakotas Prærie</t>
+  </si>
+  <si>
+    <t>De Forenede Stater</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Kalifornien</t>
+  </si>
+  <si>
+    <t>Nicollet Avenue</t>
+  </si>
+  <si>
+    <t>Indien</t>
+  </si>
+  <si>
+    <t>Fædrelandet</t>
+  </si>
+  <si>
+    <t>Emersons Grav</t>
+  </si>
+  <si>
+    <t>Englang</t>
+  </si>
+  <si>
+    <t>Jowa</t>
+  </si>
+  <si>
+    <t>New Yorkerbladene</t>
+  </si>
+  <si>
+    <t>Bismarck</t>
+  </si>
+  <si>
+    <t>New Vorks</t>
+  </si>
+  <si>
+    <t>Luzerne County</t>
+  </si>
+  <si>
+    <t>Chattahoochee</t>
+  </si>
+  <si>
+    <t>Chicagos</t>
+  </si>
+  <si>
+    <t>Michigan Avenue</t>
+  </si>
+  <si>
+    <t>Cicilien</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Manahattan</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1363,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3237,7 +3411,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17398,4 +17573,3251 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="22.29"/>
+    <col customWidth="1" min="3" max="3" width="15.57"/>
+    <col customWidth="1" min="4" max="4" width="15.71"/>
+    <col customWidth="1" min="5" max="5" width="14.14"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42.3601</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-71.0589</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40.7128</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-74.006</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>119.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38.9072</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-77.0369</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.1304</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-106.3468</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44.9778</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-93.265</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41.8781</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-87.6298</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40.7128</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-74.006</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60.472</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.4689</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2">
+        <v>54.526</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15.2551</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2">
+        <v>31.9686</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-99.9018</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2">
+        <v>48.8566</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.3522</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39.0119</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-98.4842</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36.7783</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-119.4179</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43.7844</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-88.7879</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.8393</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-84.27</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>34.7465</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-92.2896</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="2">
+        <v>23.6345</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-102.5528</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44.3148</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-85.6024</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="2">
+        <v>51.1657</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10.4515</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2">
+        <v>46.7296</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-94.6859</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2">
+        <v>46.8797</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-110.3626</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="2">
+        <v>29.9511</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-90.0715</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2">
+        <v>35.5175</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-86.5804</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C27" s="2">
+        <v>54.526</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-105.2551</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2">
+        <v>40.4173</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-82.9071</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2">
+        <v>37.9643</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-91.8318</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>52.3555</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1.1743</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2">
+        <v>40.6782</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-73.9442</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="2">
+        <v>60.128161</v>
+      </c>
+      <c r="D33" s="2">
+        <v>18.643501</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30.5852</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32.2654</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="2">
+        <v>39.321</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-111.0937</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="2">
+        <v>38.627</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-90.1994</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>104.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="2">
+        <v>78.9072</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16.2569</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="2">
+        <v>60.128161</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18.643501</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43.4195</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-83.9508</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="2">
+        <v>51.5294</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7.6278</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="2">
+        <v>46.8139</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-71.2082</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="2">
+        <v>37.9643</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-91.8318</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="2">
+        <v>39.9526</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-75.1652</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-9.19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-75.0152</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41.2033</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-77.1945</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="2">
+        <v>40.7891</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-73.135</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2">
+        <v>32.3547</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-89.3985</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>93.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45.4215</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-75.6972</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>92.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44.0247</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-88.5426</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-85.0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="2">
+        <v>37.6381</v>
+      </c>
+      <c r="D51" s="2">
+        <v>21.6291</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="2">
+        <v>37.7749</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-122.4194</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2">
+        <v>40.367476</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-82.996216</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="2">
+        <v>39.9612</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-82.9988</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-5.7034</v>
+      </c>
+      <c r="D55" s="2">
+        <v>141.803</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="2">
+        <v>39.9526</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-75.1652</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-87.5</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="2">
+        <v>40.712776</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-74.005974</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43.0759</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-107.2903</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="2">
+        <v>41.14</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-104.8202</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" s="2">
+        <v>38.9072</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-77.0369</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>124.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43.7422</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-90.2695</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44.0065</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-91.2396</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>122.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="2">
+        <v>48.2082</v>
+      </c>
+      <c r="D64" s="2">
+        <v>16.3738</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="2">
+        <v>39.2904</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-76.6122</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="2">
+        <v>33.749</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-84.388</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="2">
+        <v>33.749</v>
+      </c>
+      <c r="D67" s="2">
+        <v>-84.388</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C68" s="2">
+        <v>37.9838</v>
+      </c>
+      <c r="D68" s="2">
+        <v>23.7275</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2">
+        <v>37.9838</v>
+      </c>
+      <c r="D69" s="2">
+        <v>23.7275</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="2">
+        <v>34.0479</v>
+      </c>
+      <c r="D70" s="2">
+        <v>100.6197</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>134.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C71" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C73" s="2">
+        <v>51.4975</v>
+      </c>
+      <c r="D73" s="2">
+        <v>-0.1357</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="2">
+        <v>38.8895</v>
+      </c>
+      <c r="D74" s="2">
+        <v>-77.0353</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C75" s="2">
+        <v>17.8139</v>
+      </c>
+      <c r="D75" s="2">
+        <v>33.9519</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2">
+        <v>38.8951</v>
+      </c>
+      <c r="D76" s="2">
+        <v>-77.0364</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="2">
+        <v>46.0656</v>
+      </c>
+      <c r="D77" s="2">
+        <v>-118.343</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>116.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="2">
+        <v>37.4316</v>
+      </c>
+      <c r="D78" s="2">
+        <v>-78.6569</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45.4408</v>
+      </c>
+      <c r="D79" s="2">
+        <v>12.3155</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="2">
+        <v>39.32</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-111.0937</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>132.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="2">
+        <v>38.9072</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-77.0369</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43.1242</v>
+      </c>
+      <c r="D82" s="2">
+        <v>5.928</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" s="2">
+        <v>53.1424</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-7.6921</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>137.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="2">
+        <v>55.6829</v>
+      </c>
+      <c r="D84" s="2">
+        <v>12.5635</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D85" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="2">
+        <v>40.7891</v>
+      </c>
+      <c r="D86" s="2">
+        <v>-73.135</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="D88" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="D89" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2">
+        <v>46.8021</v>
+      </c>
+      <c r="D90" s="2">
+        <v>-100.7837</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="D91" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>-100.0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C93" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D93" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="2">
+        <v>32.6024</v>
+      </c>
+      <c r="D94" s="2">
+        <v>-96.1139</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="2">
+        <v>56.130366</v>
+      </c>
+      <c r="D95" s="2">
+        <v>-106.346771</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C96" s="2">
+        <v>36.7783</v>
+      </c>
+      <c r="D96" s="2">
+        <v>-119.4179</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43.7422</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-90.2695</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44.9852</v>
+      </c>
+      <c r="D98" s="2">
+        <v>-93.2717</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2">
+        <v>53.1424</v>
+      </c>
+      <c r="D99" s="2">
+        <v>-7.6921</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41.878</v>
+      </c>
+      <c r="D100" s="2">
+        <v>-93.0977</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="2">
+        <v>20.5937</v>
+      </c>
+      <c r="D101" s="2">
+        <v>78.9629</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2">
+        <v>40.2672</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-86.1349</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="2">
+        <v>39.7684</v>
+      </c>
+      <c r="D103" s="2">
+        <v>-86.1581</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="2">
+        <v>41.8781</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-87.6298</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="2">
+        <v>40.6331</v>
+      </c>
+      <c r="D105" s="2">
+        <v>-89.3985</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2">
+        <v>32.1656</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-82.9001</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C107" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D107" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="2">
+        <v>48.8566</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2.3522</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="2">
+        <v>46.6034</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.8883</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C110" s="2">
+        <v>42.4594</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-71.3489</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C111" s="2">
+        <v>52.3555</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1.1743</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="2">
+        <v>42.0347</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-93.5815</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="2">
+        <v>50.8503</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4.3517</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43.0962</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-79.0377</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115" s="2">
+        <v>40.7128</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-74.006</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C116" s="2">
+        <v>46.8083</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-100.7837</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="2">
+        <v>40.712776</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-74.005974</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C118" s="2">
+        <v>40.7128</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-74.006</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36.7783</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-119.4179</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-71.5</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="2">
+        <v>38.8026</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-116.4194</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="2">
+        <v>41.4925</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-99.9018</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D123" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="2">
+        <v>56.1304</v>
+      </c>
+      <c r="D124" s="2">
+        <v>-106.3468</v>
+      </c>
+      <c r="E124" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C125" s="2">
+        <v>41.2048</v>
+      </c>
+      <c r="D125" s="2">
+        <v>-75.998</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="2">
+        <v>64.2008</v>
+      </c>
+      <c r="D126" s="2">
+        <v>-149.4937</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C127" s="2">
+        <v>30.7046</v>
+      </c>
+      <c r="D127" s="2">
+        <v>-84.8474</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44.9778</v>
+      </c>
+      <c r="D128" s="2">
+        <v>-93.265</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C129" s="2">
+        <v>41.8781</v>
+      </c>
+      <c r="D129" s="2">
+        <v>-87.6298</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="2">
+        <v>41.8887</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-87.6226</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C131" s="2">
+        <v>37.5999938</v>
+      </c>
+      <c r="D131" s="2">
+        <v>14.0153556</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" s="2">
+        <v>25.7617</v>
+      </c>
+      <c r="D132" s="2">
+        <v>-80.1918</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="2">
+        <v>39.7434</v>
+      </c>
+      <c r="D133" s="2">
+        <v>-104.9566</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C134" s="2">
+        <v>40.7725</v>
+      </c>
+      <c r="D134" s="2">
+        <v>-73.9817</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="2">
+        <v>42.4072</v>
+      </c>
+      <c r="D135" s="2">
+        <v>-71.3824</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="2">
+        <v>43.2965</v>
+      </c>
+      <c r="D136" s="2">
+        <v>5.3698</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C137" s="2">
+        <v>40.7831</v>
+      </c>
+      <c r="D137" s="2">
+        <v>-73.9712</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C138" s="2">
+        <v>40.7425</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-73.9891</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="2">
+        <v>38.5739</v>
+      </c>
+      <c r="D139" s="2">
+        <v>-92.6038</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Diverse geolokasjoner.xlsx
+++ b/Diverse geolokasjoner.xlsx
@@ -15,6 +15,8 @@
     <sheet state="visible" name="Lie_Lodsen_hustru" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Kielland_Skipper_Worse" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="gpt_Skram_SG_Myre" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="gpt_Æventyrland" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="gpt_Sult" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="803">
   <si>
     <t>Term</t>
   </si>
@@ -2026,6 +2028,435 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Tyrkiet</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Leyden</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
+    <t>Kreml</t>
+  </si>
+  <si>
+    <t>Prag</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Uspenski Katedral</t>
+  </si>
+  <si>
+    <t>St. Petersborg</t>
+  </si>
+  <si>
+    <t>Red River Dalen</t>
+  </si>
+  <si>
+    <t>Red River Valley</t>
+  </si>
+  <si>
+    <t>Derbent</t>
+  </si>
+  <si>
+    <t>det Kaspiske Hav</t>
+  </si>
+  <si>
+    <t>Caspian Sea</t>
+  </si>
+  <si>
+    <t>Tiflis</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Vladikaukas</t>
+  </si>
+  <si>
+    <t>Vladikavkaz</t>
+  </si>
+  <si>
+    <t>North Ossetia-Alania</t>
+  </si>
+  <si>
+    <t>Pjatjgorsk</t>
+  </si>
+  <si>
+    <t>Voronesj</t>
+  </si>
+  <si>
+    <t>Byen Voronesj</t>
+  </si>
+  <si>
+    <t>Voronezh</t>
+  </si>
+  <si>
+    <t>Stad Voronesj</t>
+  </si>
+  <si>
+    <t>Kaukasien</t>
+  </si>
+  <si>
+    <t>Caucasus</t>
+  </si>
+  <si>
+    <t>Rostov</t>
+  </si>
+  <si>
+    <t>Petrovsk</t>
+  </si>
+  <si>
+    <t>Petrovsk-Port</t>
+  </si>
+  <si>
+    <t>Tihoretskaja</t>
+  </si>
+  <si>
+    <t>Tikhoretsk, Russia</t>
+  </si>
+  <si>
+    <t>Armavirov</t>
+  </si>
+  <si>
+    <t>Armavir, Russia</t>
+  </si>
+  <si>
+    <t>North Ossetia</t>
+  </si>
+  <si>
+    <t>Pyatigorsk</t>
+  </si>
+  <si>
+    <t>Beslan</t>
+  </si>
+  <si>
+    <t>Stationen Beslan</t>
+  </si>
+  <si>
+    <t>Beslan Railway Station</t>
+  </si>
+  <si>
+    <t>Pjatigorsk</t>
+  </si>
+  <si>
+    <t>Persien</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Kina</t>
+  </si>
+  <si>
+    <t>Kasbek</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Nordland</t>
+  </si>
+  <si>
+    <t>Kazbek</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bjærget Ararat</t>
+  </si>
+  <si>
+    <t>Kristendom i England</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Transvaal</t>
+  </si>
+  <si>
+    <t>Oporto</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Serbien</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Terek</t>
+  </si>
+  <si>
+    <t>Terek River</t>
+  </si>
+  <si>
+    <t>Daghestan</t>
+  </si>
+  <si>
+    <t>Dagestan</t>
+  </si>
+  <si>
+    <t>Gudaur</t>
+  </si>
+  <si>
+    <t>Gudauri</t>
+  </si>
+  <si>
+    <t>Mleti</t>
+  </si>
+  <si>
+    <t>Россия (Russia)</t>
+  </si>
+  <si>
+    <t>Helsingfors</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Stavropol Krai</t>
+  </si>
+  <si>
+    <t>Aragva</t>
+  </si>
+  <si>
+    <t>Aragvi</t>
+  </si>
+  <si>
+    <t>Peter-Paul Fæstningen</t>
+  </si>
+  <si>
+    <t>Peter and Paul Fortress</t>
+  </si>
+  <si>
+    <t>Miinchen</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Georgien</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Mtsjet</t>
+  </si>
+  <si>
+    <t>Mtskheta</t>
+  </si>
+  <si>
+    <t>Universitetet i København</t>
+  </si>
+  <si>
+    <t>Mtatsminda</t>
+  </si>
+  <si>
+    <t>Munchen</t>
+  </si>
+  <si>
+    <t>Palæstina</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Floden Kur</t>
+  </si>
+  <si>
+    <t>Bagdad</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Kaspiske Hav</t>
+  </si>
+  <si>
+    <t>Astrakan</t>
+  </si>
+  <si>
+    <t>Astrakhan</t>
+  </si>
+  <si>
+    <t>det gamle Baku</t>
+  </si>
+  <si>
+    <t>Petroleumskilderne i Balakani</t>
+  </si>
+  <si>
+    <t>Balakany</t>
+  </si>
+  <si>
+    <t>Halvøen Apsjeron</t>
+  </si>
+  <si>
+    <t>Absheron Peninsula</t>
+  </si>
+  <si>
+    <t>Absheron</t>
+  </si>
+  <si>
+    <t>Surakani</t>
+  </si>
+  <si>
+    <t>Surakhani</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Bokhara</t>
+  </si>
+  <si>
+    <t>Bukhara</t>
+  </si>
+  <si>
+    <t>Damaskus</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Konstantinopel</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Medinet el Nabi</t>
+  </si>
+  <si>
+    <t>Om el Kora</t>
+  </si>
+  <si>
+    <t>Gurien</t>
+  </si>
+  <si>
+    <t>Guria</t>
+  </si>
+  <si>
+    <t>Batum</t>
+  </si>
+  <si>
+    <t>Batumi</t>
+  </si>
+  <si>
+    <t>Sortehavet</t>
+  </si>
+  <si>
+    <t>Black Sea</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Slottsbakken</t>
+  </si>
+  <si>
+    <t>Smyrna</t>
+  </si>
+  <si>
+    <t>Izmir</t>
+  </si>
+  <si>
+    <t>Vor Frelsers Gravlund</t>
+  </si>
+  <si>
+    <t>St. Hanshaugen</t>
+  </si>
+  <si>
+    <t>Sagene</t>
+  </si>
+  <si>
+    <t>Stortinget</t>
+  </si>
+  <si>
+    <t>Majorstuen</t>
+  </si>
+  <si>
+    <t>Lierfjældene</t>
+  </si>
+  <si>
+    <t>Aker</t>
+  </si>
+  <si>
+    <t>Bernt Ankers Gade</t>
+  </si>
+  <si>
+    <t>Tivoli</t>
+  </si>
+  <si>
+    <t>Tivoli Gardens</t>
+  </si>
+  <si>
+    <t>Amusement Park</t>
+  </si>
+  <si>
+    <t>Karl Johans gate</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>St. Olafs Plads</t>
+  </si>
+  <si>
+    <t>Holmestrand</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Cadix</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
 </sst>
 </file>
@@ -2108,6 +2539,14 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -12238,6 +12677,5968 @@
         <v>11</v>
       </c>
     </row>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="20.57"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C2" s="2">
+        <v>61.9241</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25.7482</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C3" s="2">
+        <v>38.9637</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35.2433</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="D5" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="2">
+        <v>48.8566</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.3522</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C7" s="2">
+        <v>52.1601</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.497</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D8" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C9" s="2">
+        <v>55.752</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37.6175</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50.0755</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14.4378</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="2">
+        <v>55.752</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37.6175</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D12" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C13" s="2">
+        <v>61.9241</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25.7482</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C14" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C15" s="2">
+        <v>59.9343</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.3351</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="2">
+        <v>37.0902</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-95.7129</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50.4504</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-104.6178</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42.0578</v>
+      </c>
+      <c r="D20" s="2">
+        <v>48.2888</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D22" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C23" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43.0377</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44.0486</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C27" s="2">
+        <v>51.6608</v>
+      </c>
+      <c r="D27" s="2">
+        <v>39.2003</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>74.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C28" s="2">
+        <v>51.6608</v>
+      </c>
+      <c r="D28" s="2">
+        <v>39.2003</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C30" s="2">
+        <v>51.6608</v>
+      </c>
+      <c r="D30" s="2">
+        <v>39.2003</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="2">
+        <v>31.9686</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-99.9018</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42.0396</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43.796</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C33" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D33" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D34" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>96.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43.0245</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44.6904</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C36" s="2">
+        <v>47.2357</v>
+      </c>
+      <c r="D36" s="2">
+        <v>39.7015</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C37" s="2">
+        <v>53.7512</v>
+      </c>
+      <c r="D37" s="2">
+        <v>49.402</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45.8529</v>
+      </c>
+      <c r="D40" s="2">
+        <v>39.212</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44.9982</v>
+      </c>
+      <c r="D41" s="2">
+        <v>41.1236</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C42" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="D42" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C43" s="2">
+        <v>59.9343</v>
+      </c>
+      <c r="D43" s="2">
+        <v>30.3351</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>138.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C44" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D44" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>139.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44.6677</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44.0304</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43.0599</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>141.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43.1939</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44.5333</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>143.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42.0587</v>
+      </c>
+      <c r="D48" s="2">
+        <v>48.2889</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43.1939</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44.5333</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>166.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44.6676</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44.0486</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>174.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C53" s="2">
+        <v>32.4279</v>
+      </c>
+      <c r="D53" s="2">
+        <v>53.688</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>176.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C54" s="2">
+        <v>35.8617</v>
+      </c>
+      <c r="D54" s="2">
+        <v>104.1954</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42.9831</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44.6819</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>196.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43.0365</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>199.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42.6969</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44.6186</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43.0365</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>208.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42.6969</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44.6186</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C60" s="2">
+        <v>39.5501</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-105.7821</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>217.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C61" s="2">
+        <v>67.8966</v>
+      </c>
+      <c r="D61" s="2">
+        <v>15.3126</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42.7085</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44.5282</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C63" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D63" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C64" s="2">
+        <v>39.7024</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44.3742</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C65" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D65" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>234.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2">
+        <v>40.0691</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45.0382</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="D67" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C68" s="2">
+        <v>52.3555</v>
+      </c>
+      <c r="D68" s="2">
+        <v>-1.1743</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C69" s="2">
+        <v>48.1173</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-1.6778</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-24.5085</v>
+      </c>
+      <c r="D70" s="2">
+        <v>28.2639</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41.1579</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-8.6291</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44.0165</v>
+      </c>
+      <c r="D72" s="2">
+        <v>21.0059</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>258.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="2">
+        <v>60.472</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8.4689</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C74" s="2">
+        <v>66.8653</v>
+      </c>
+      <c r="D74" s="2">
+        <v>13.186</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>286.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="D75" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>287.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43.2069</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44.4881</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" s="2">
+        <v>42.0581</v>
+      </c>
+      <c r="D77" s="2">
+        <v>47.3018</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>299.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C78" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>335.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C79" s="2">
+        <v>61.9241</v>
+      </c>
+      <c r="D79" s="2">
+        <v>25.7482</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>336.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C80" s="2">
+        <v>61.9241</v>
+      </c>
+      <c r="D80" s="2">
+        <v>25.7482</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>340.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C81" s="2">
+        <v>42.4614</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44.4757</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>345.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C82" s="2">
+        <v>42.4975</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44.5559</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C83" s="2">
+        <v>42.4614</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44.4757</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>352.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44.0486</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>357.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>358.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42.4975</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44.5559</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>359.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44.0486</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>363.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="D89" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>365.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43.0351</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44.681</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C91" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>368.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C92" s="2">
+        <v>60.1699</v>
+      </c>
+      <c r="D92" s="2">
+        <v>24.9384</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>370.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C93" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>371.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C94" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D94" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>372.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C95" s="2">
+        <v>59.9343</v>
+      </c>
+      <c r="D95" s="2">
+        <v>30.3351</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44.0434</v>
+      </c>
+      <c r="D96" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>378.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C97" s="2">
+        <v>42.0719</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44.6183</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>379.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C98" s="2">
+        <v>42.0601</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44.6266</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C100" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>402.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C101" s="2">
+        <v>59.9343</v>
+      </c>
+      <c r="D101" s="2">
+        <v>30.3351</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>403.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C102" s="2">
+        <v>59.95</v>
+      </c>
+      <c r="D102" s="2">
+        <v>30.3167</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="2">
+        <v>63.4305</v>
+      </c>
+      <c r="D103" s="2">
+        <v>10.3951</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>408.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43.0245</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44.69</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>415.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C105" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>416.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44.0486</v>
+      </c>
+      <c r="D106" s="2">
+        <v>43.0594</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>418.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C107" s="2">
+        <v>61.9241</v>
+      </c>
+      <c r="D107" s="2">
+        <v>25.7482</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>419.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="D108" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>421.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C109" s="2">
+        <v>48.1351</v>
+      </c>
+      <c r="D109" s="2">
+        <v>11.582</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="2">
+        <v>51.509865</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-0.118092</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>426.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C111" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D111" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>427.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C112" s="2">
+        <v>42.3154</v>
+      </c>
+      <c r="D112" s="2">
+        <v>43.3569</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>432.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C113" s="2">
+        <v>41.9028</v>
+      </c>
+      <c r="D113" s="2">
+        <v>12.4964</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>433.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C114" s="2">
+        <v>41.839</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44.7209</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>438.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C115" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D115" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>444.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="D116" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>445.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C117" s="2">
+        <v>55.6846</v>
+      </c>
+      <c r="D117" s="2">
+        <v>12.5718</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C118" s="2">
+        <v>41.7072</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44.7881</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>467.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C119" s="2">
+        <v>48.1351</v>
+      </c>
+      <c r="D119" s="2">
+        <v>11.582</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>468.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="2">
+        <v>61.916</v>
+      </c>
+      <c r="D120" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="2">
+        <v>60.472</v>
+      </c>
+      <c r="D121" s="2">
+        <v>8.4689</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>471.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="D122" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C123" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="D123" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>476.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C124" s="2">
+        <v>31.6846</v>
+      </c>
+      <c r="D124" s="2">
+        <v>87.1056</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>479.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C125" s="2">
+        <v>40.0522</v>
+      </c>
+      <c r="D125" s="2">
+        <v>48.2951</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>480.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C126" s="2">
+        <v>42.0821</v>
+      </c>
+      <c r="D126" s="2">
+        <v>43.6299</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>482.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C127" s="2">
+        <v>33.3152</v>
+      </c>
+      <c r="D127" s="2">
+        <v>44.3661</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>483.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="2">
+        <v>20.5937</v>
+      </c>
+      <c r="D128" s="2">
+        <v>78.9629</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>484.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C129" s="2">
+        <v>30.1534</v>
+      </c>
+      <c r="D129" s="2">
+        <v>88.7879</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>485.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C130" s="2">
+        <v>32.4279</v>
+      </c>
+      <c r="D130" s="2">
+        <v>53.688</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>486.0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C131" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D131" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>487.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C132" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="D132" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>492.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C133" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D133" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>493.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C134" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D134" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>497.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C135" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D135" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>498.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C136" s="2">
+        <v>46.3497</v>
+      </c>
+      <c r="D136" s="2">
+        <v>48.0408</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>502.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C137" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D137" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C138" s="2">
+        <v>43.0367</v>
+      </c>
+      <c r="D138" s="2">
+        <v>44.6673</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>506.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C139" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D139" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>517.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C140" s="2">
+        <v>40.3434</v>
+      </c>
+      <c r="D140" s="2">
+        <v>49.6596</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>522.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C141" s="2">
+        <v>40.3777</v>
+      </c>
+      <c r="D141" s="2">
+        <v>49.7747</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>523.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C142" s="2">
+        <v>40.4269</v>
+      </c>
+      <c r="D142" s="2">
+        <v>49.9701</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>525.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C143" s="2">
+        <v>32.4279</v>
+      </c>
+      <c r="D143" s="2">
+        <v>53.688</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>527.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C144" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D144" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>529.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="2">
+        <v>20.5937</v>
+      </c>
+      <c r="D145" s="2">
+        <v>78.9629</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>530.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C146" s="2">
+        <v>24.5247</v>
+      </c>
+      <c r="D146" s="2">
+        <v>39.5692</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>532.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C147" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>534.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C148" s="2">
+        <v>39.7767</v>
+      </c>
+      <c r="D148" s="2">
+        <v>64.4156</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>536.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C149" s="2">
+        <v>33.5138</v>
+      </c>
+      <c r="D149" s="2">
+        <v>36.2765</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C150" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>541.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C151" s="2">
+        <v>39.767</v>
+      </c>
+      <c r="D151" s="2">
+        <v>64.4227</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>542.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C152" s="2">
+        <v>24.5247</v>
+      </c>
+      <c r="D152" s="2">
+        <v>39.5692</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>543.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C153" s="2">
+        <v>41.0082</v>
+      </c>
+      <c r="D153" s="2">
+        <v>28.9784</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>545.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C154" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D154" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>547.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C155" s="2">
+        <v>24.5247</v>
+      </c>
+      <c r="D155" s="2">
+        <v>39.5692</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>548.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C156" s="2">
+        <v>21.3891</v>
+      </c>
+      <c r="D156" s="2">
+        <v>39.8579</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>549.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C157" s="2">
+        <v>24.5247</v>
+      </c>
+      <c r="D157" s="2">
+        <v>39.5692</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C158" s="2">
+        <v>21.3891</v>
+      </c>
+      <c r="D158" s="2">
+        <v>39.8579</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>558.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C159" s="2">
+        <v>41.9832</v>
+      </c>
+      <c r="D159" s="2">
+        <v>42.0835</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>559.0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C160" s="2">
+        <v>41.6511</v>
+      </c>
+      <c r="D160" s="2">
+        <v>41.6552</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43.413</v>
+      </c>
+      <c r="D161" s="2">
+        <v>34.0395</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43.413</v>
+      </c>
+      <c r="D162" s="2">
+        <v>34.0395</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>567.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C163" s="2">
+        <v>41.6511</v>
+      </c>
+      <c r="D163" s="2">
+        <v>41.6552</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>569.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C164" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D164" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>571.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C165" s="2">
+        <v>38.9637</v>
+      </c>
+      <c r="D165" s="2">
+        <v>35.2433</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>572.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C166" s="2">
+        <v>31.2156</v>
+      </c>
+      <c r="D166" s="2">
+        <v>29.9553</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>573.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43.2965</v>
+      </c>
+      <c r="D167" s="2">
+        <v>5.3698</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>579.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C168" s="2">
+        <v>41.6511</v>
+      </c>
+      <c r="D168" s="2">
+        <v>41.6552</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>604.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="2">
+        <v>46.4825</v>
+      </c>
+      <c r="D169" s="2">
+        <v>30.7233</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>605.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43.413</v>
+      </c>
+      <c r="D170" s="2">
+        <v>34.5408</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>608.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C171" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="D171" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="22.71"/>
+    <col customWidth="1" min="3" max="3" width="22.43"/>
+    <col customWidth="1" min="4" max="4" width="22.86"/>
+    <col customWidth="1" min="5" max="5" width="32.0"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>59.9156</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10.7367</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>38.4192</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27.1282</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
+        <v>59.9243</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10.7502</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>59.9291</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.7429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>59.9375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.7549</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>59.9115</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10.7403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>98.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>59.928</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.7169</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60.2618</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10.274</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>59.9307</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10.7522</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>59.9145</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10.7523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>206.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60.3971</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.3242</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>218.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>59.9294</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.7383</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F14" s="2">
+        <v>53.5511</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.9937</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F15" s="2">
+        <v>55.6739</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12.5664</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F16" s="2">
+        <v>55.6739</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12.5664</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F17" s="2">
+        <v>59.9123</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10.7531</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2">
+        <v>59.9174</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.7311</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F19" s="2">
+        <v>59.9127</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10.7365</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>59.4889</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10.3159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>293.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F21" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10.7383</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
+        <v>59.9127</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.7461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>358.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>53.8008</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1.5491</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>359.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F24" s="2">
+        <v>36.5271</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-6.2886</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>363.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
     <row r="42"/>
     <row r="43"/>
     <row r="44"/>

--- a/Diverse geolokasjoner.xlsx
+++ b/Diverse geolokasjoner.xlsx
@@ -17,6 +17,8 @@
     <sheet state="visible" name="gpt_Skram_SG_Myre" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="gpt_Æventyrland" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="gpt_Sult" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="llama_Sult" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="llama_Æventyrland" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5381" uniqueCount="974">
   <si>
     <t>Term</t>
   </si>
@@ -2457,6 +2459,519 @@
   </si>
   <si>
     <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Vor Frelsers Taarn</t>
+  </si>
+  <si>
+    <t>Slotsparken</t>
+  </si>
+  <si>
+    <t>Pilestrædet</t>
+  </si>
+  <si>
+    <t>Drammen</t>
+  </si>
+  <si>
+    <t>Grændsen</t>
+  </si>
+  <si>
+    <t>Basarerne</t>
+  </si>
+  <si>
+    <t>Kirkegaardene</t>
+  </si>
+  <si>
+    <t>Dronningens Lysthus</t>
+  </si>
+  <si>
+    <t>Lunden</t>
+  </si>
+  <si>
+    <t>Studenterlunden</t>
+  </si>
+  <si>
+    <t>St. Olafs Plads Numer 2</t>
+  </si>
+  <si>
+    <t>Grænlandsleret</t>
+  </si>
+  <si>
+    <t>Raadstuen</t>
+  </si>
+  <si>
+    <t>İzmir</t>
+  </si>
+  <si>
+    <t>Hægdehaugen</t>
+  </si>
+  <si>
+    <t>Bogstadskogen</t>
+  </si>
+  <si>
+    <t>Grønlandsleret</t>
+  </si>
+  <si>
+    <t>Møllergaden</t>
+  </si>
+  <si>
+    <t>Basarhjørnet</t>
+  </si>
+  <si>
+    <t>Vandspringet</t>
+  </si>
+  <si>
+    <t>Krist Kirkegaard</t>
+  </si>
+  <si>
+    <t>Oplandske Kafeé</t>
+  </si>
+  <si>
+    <t>Møllergaten</t>
+  </si>
+  <si>
+    <t>Stiftsgaarden</t>
+  </si>
+  <si>
+    <t>Detektivafdelingen</t>
+  </si>
+  <si>
+    <t>Havnen</t>
+  </si>
+  <si>
+    <t>Vor Frelsers</t>
+  </si>
+  <si>
+    <t>Vor Frelsers Kirke</t>
+  </si>
+  <si>
+    <t>Jærnbanebryggen</t>
+  </si>
+  <si>
+    <t>Vaterland</t>
+  </si>
+  <si>
+    <t>Stenersgaden</t>
+  </si>
+  <si>
+    <t>Rebslagergangen</t>
+  </si>
+  <si>
+    <t>Jotunhejmen</t>
+  </si>
+  <si>
+    <t>Vor Frelsers kirke</t>
+  </si>
+  <si>
+    <t>Archangel</t>
+  </si>
+  <si>
+    <t>Arkhangelsk Oblast</t>
+  </si>
+  <si>
+    <t>Slottet</t>
+  </si>
+  <si>
+    <t>Grand</t>
+  </si>
+  <si>
+    <t>Stortingsplads</t>
+  </si>
+  <si>
+    <t>Parken</t>
+  </si>
+  <si>
+    <t>Storgaden</t>
+  </si>
+  <si>
+    <t>Universitetsgaden</t>
+  </si>
+  <si>
+    <t>Ullevoldsvejen</t>
+  </si>
+  <si>
+    <t>Tomtegaden</t>
+  </si>
+  <si>
+    <t>Vognmandsgaden</t>
+  </si>
+  <si>
+    <t>Grønland</t>
+  </si>
+  <si>
+    <t>Kirken</t>
+  </si>
+  <si>
+    <t>Hammersborg</t>
+  </si>
+  <si>
+    <t>Torvegaden</t>
+  </si>
+  <si>
+    <t>Smedgangen</t>
+  </si>
+  <si>
+    <t>Youngsbakken</t>
+  </si>
+  <si>
+    <t>Vestfold</t>
+  </si>
+  <si>
+    <t>Jærnbanetorvet</t>
+  </si>
+  <si>
+    <t>Havnegaden</t>
+  </si>
+  <si>
+    <t>Tomtegaden Numer 11</t>
+  </si>
+  <si>
+    <t>Drammensvejen</t>
+  </si>
+  <si>
+    <t>Byen</t>
+  </si>
+  <si>
+    <t>Fæstningen</t>
+  </si>
+  <si>
+    <t>Bryggerne</t>
+  </si>
+  <si>
+    <t>Logihuset</t>
+  </si>
+  <si>
+    <t>Torvet</t>
+  </si>
+  <si>
+    <t>Elefantapoteket</t>
+  </si>
+  <si>
+    <t>Kongsberg</t>
+  </si>
+  <si>
+    <t>Buskerud</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>Andalusia</t>
+  </si>
+  <si>
+    <t>Fjorden</t>
+  </si>
+  <si>
+    <t>Oslofjord</t>
+  </si>
+  <si>
+    <t>Nordic countries</t>
+  </si>
+  <si>
+    <t>Neva</t>
+  </si>
+  <si>
+    <t>Vinterpaladset</t>
+  </si>
+  <si>
+    <t>Peter-Pauls Fæstning</t>
+  </si>
+  <si>
+    <t>Eremitagen</t>
+  </si>
+  <si>
+    <t>Nicolai Jærnbanestation</t>
+  </si>
+  <si>
+    <t>Spaskiporten</t>
+  </si>
+  <si>
+    <t>Tsar-pusjka</t>
+  </si>
+  <si>
+    <t>Tsar-kolokol</t>
+  </si>
+  <si>
+    <t>Alexandermonumentet</t>
+  </si>
+  <si>
+    <t>Arsenalet</t>
+  </si>
+  <si>
+    <t>Ivan Veliki Taarnet</t>
+  </si>
+  <si>
+    <t>Galleri Tretjakov</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Buda-Pest</t>
+  </si>
+  <si>
+    <t>Moscow Oblast</t>
+  </si>
+  <si>
+    <t>Rjæsaner Vaksal</t>
+  </si>
+  <si>
+    <t>Leningrad Oblast</t>
+  </si>
+  <si>
+    <t>Voronezh Oblast</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Krasnodar Krai</t>
+  </si>
+  <si>
+    <t>Kaukaskaja</t>
+  </si>
+  <si>
+    <t>Armavir</t>
+  </si>
+  <si>
+    <t>Norditalien</t>
+  </si>
+  <si>
+    <t>Northern Italy</t>
+  </si>
+  <si>
+    <t>Sydfrankrig</t>
+  </si>
+  <si>
+    <t>Southern France</t>
+  </si>
+  <si>
+    <t>Kaukasusbjærgene</t>
+  </si>
+  <si>
+    <t>Caucasus Mountains</t>
+  </si>
+  <si>
+    <t>Makhachkala</t>
+  </si>
+  <si>
+    <t>Grækenland</t>
+  </si>
+  <si>
+    <t>Bjærgene</t>
+  </si>
+  <si>
+    <t>Sydeuropa</t>
+  </si>
+  <si>
+    <t>Southern Europe</t>
+  </si>
+  <si>
+    <t>Bjærget Kasbek</t>
+  </si>
+  <si>
+    <t>Floden Kuban</t>
+  </si>
+  <si>
+    <t>Balta</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Darjalfortet</t>
+  </si>
+  <si>
+    <t>Hardangervidden</t>
+  </si>
+  <si>
+    <t>Bayerske Alper</t>
+  </si>
+  <si>
+    <t>Ararat</t>
+  </si>
+  <si>
+    <t>Ossetien</t>
+  </si>
+  <si>
+    <t>Darjalpasset</t>
+  </si>
+  <si>
+    <t>Caucasus region</t>
+  </si>
+  <si>
+    <t>Kobi</t>
+  </si>
+  <si>
+    <t>Uusimaa</t>
+  </si>
+  <si>
+    <t>Ananur</t>
+  </si>
+  <si>
+    <t>Ananuri</t>
+  </si>
+  <si>
+    <t>Passananur</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Kur</t>
+  </si>
+  <si>
+    <t>Kura River</t>
+  </si>
+  <si>
+    <t>Aragvi River</t>
+  </si>
+  <si>
+    <t>Davidsklostret</t>
+  </si>
+  <si>
+    <t>Gribojedovs Gravmæle</t>
+  </si>
+  <si>
+    <t>Anna Tsikeborgen</t>
+  </si>
+  <si>
+    <t>Engelsborg</t>
+  </si>
+  <si>
+    <t>Castel Sant'Angelo</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Teheran</t>
+  </si>
+  <si>
+    <t>Tehran Province</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Istanbul Province</t>
+  </si>
+  <si>
+    <t>Tibet Autonomous Region</t>
+  </si>
+  <si>
+    <t>Turkestan</t>
+  </si>
+  <si>
+    <t>Arabien</t>
+  </si>
+  <si>
+    <t>Arabia</t>
+  </si>
+  <si>
+    <t>Kaschmir</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>Volga</t>
+  </si>
+  <si>
+    <t>Volga River</t>
+  </si>
+  <si>
+    <t>Samarkand</t>
+  </si>
+  <si>
+    <t>Samarkand Province</t>
+  </si>
+  <si>
+    <t>Bukhara Province</t>
+  </si>
+  <si>
+    <t>Kairo</t>
+  </si>
+  <si>
+    <t>Cairo Governorate</t>
+  </si>
+  <si>
+    <t>Makkah Province</t>
+  </si>
+  <si>
+    <t>Xiflis</t>
+  </si>
+  <si>
+    <t>Ağrı Province</t>
+  </si>
+  <si>
+    <t>Flod</t>
+  </si>
+  <si>
+    <t>Akstafa</t>
+  </si>
+  <si>
+    <t>Aserbajdsjan</t>
+  </si>
+  <si>
+    <t>Tsjornyi Gorod</t>
+  </si>
+  <si>
+    <t>Pænsylvanien</t>
+  </si>
+  <si>
+    <t>Østerrike</t>
+  </si>
+  <si>
+    <t>Apsjeron</t>
+  </si>
+  <si>
+    <t>Balakani</t>
+  </si>
+  <si>
+    <t>Ægypten</t>
+  </si>
+  <si>
+    <t>Assyrien</t>
+  </si>
+  <si>
+    <t>Babylon</t>
+  </si>
+  <si>
+    <t>Baku Ildtempel</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tbilisi Municipality</t>
+  </si>
+  <si>
+    <t>Baku Municipality</t>
+  </si>
+  <si>
+    <t>Adjara</t>
+  </si>
+  <si>
+    <t>Alexandria Governorate</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>Persia</t>
+  </si>
+  <si>
+    <t>Tamaras Borg</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
   </si>
 </sst>
 </file>
@@ -2547,6 +3062,14 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -18847,6 +19370,9360 @@
     <row r="247"/>
     <row r="248"/>
     <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" s="2">
+        <v>55.6734</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.5929</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59.9153</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10.7482</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B7" s="2">
+        <v>59.7434</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.2045</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" s="2">
+        <v>59.9216</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.7759</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B9" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B10" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="2">
+        <v>59.9264</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.7863</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B12" s="2">
+        <v>59.9153</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.7338</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="2">
+        <v>59.9128</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.7307</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B14" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10.7336</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B15" s="2">
+        <v>59.9154</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10.7436</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B16" s="2">
+        <v>59.9154</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.7436</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B17" s="2">
+        <v>35.8617</v>
+      </c>
+      <c r="C17" s="2">
+        <v>104.1954</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B19" s="2">
+        <v>32.4279</v>
+      </c>
+      <c r="C19" s="2">
+        <v>53.688</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B21" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10.7592</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B22" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10.7592</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B23" s="2">
+        <v>38.4194</v>
+      </c>
+      <c r="C23" s="2">
+        <v>27.1384</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.7592</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B25" s="2">
+        <v>59.9137</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10.7411</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B26" s="2">
+        <v>59.9242</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10.7372</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B27" s="2">
+        <v>59.9333</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B28" s="2">
+        <v>59.9333</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10.7333</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B29" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10.7394</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B30" s="2">
+        <v>59.9264</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10.7167</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B31" s="2">
+        <v>59.9667</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10.65</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B32" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D32" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B33" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B35" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B36" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D36" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B37" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B38" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B39" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2">
+        <v>63.4305</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10.3951</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B41" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.7583</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="2">
+        <v>60.3979</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5.3254</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B43" s="2">
+        <v>59.9274</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10.7503</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B44" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10.7583</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B45" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10.7583</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B46" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10.7583</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B47" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10.7583</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B48" s="2">
+        <v>55.6723</v>
+      </c>
+      <c r="C48" s="2">
+        <v>12.5674</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B49" s="2">
+        <v>55.6732</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="2">
+        <v>55.6732</v>
+      </c>
+      <c r="C50" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B52" s="2">
+        <v>55.6802</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12.5745</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B53" s="2">
+        <v>59.9132</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="2">
+        <v>59.9132</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10.7378</v>
+      </c>
+      <c r="D55" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B56" s="2">
+        <v>59.9144</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10.7414</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B57" s="2">
+        <v>59.9153</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10.7482</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B58" s="2">
+        <v>59.9125</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.7556</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B59" s="2">
+        <v>61.4567</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8.5644</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B60" s="2">
+        <v>59.9123</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10.7434</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B61" s="2">
+        <v>59.9073</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10.7439</v>
+      </c>
+      <c r="D61" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B62" s="2">
+        <v>59.9112</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.7405</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60.3971</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5.3254</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B64" s="2">
+        <v>64.5333</v>
+      </c>
+      <c r="C64" s="2">
+        <v>40.5333</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2">
+        <v>59.9112</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10.7405</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B66" s="2">
+        <v>59.9174</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10.7272</v>
+      </c>
+      <c r="D66" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B68" s="2">
+        <v>59.9084</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10.7333</v>
+      </c>
+      <c r="D68" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B69" s="2">
+        <v>59.9123</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B70" s="2">
+        <v>59.9174</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10.7272</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B71" s="2">
+        <v>59.9245</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10.7373</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B72" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10.7433</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="2">
+        <v>59.9131</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10.7394</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B74" s="2">
+        <v>59.9253</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10.7336</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="2">
+        <v>53.5511</v>
+      </c>
+      <c r="C75" s="2">
+        <v>9.9937</v>
+      </c>
+      <c r="D75" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B76" s="2">
+        <v>55.6739</v>
+      </c>
+      <c r="C76" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D76" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D77" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B78" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B79" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C79" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C80" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B81" s="2">
+        <v>59.9128</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10.7377</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B82" s="2">
+        <v>59.9238</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10.7223</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B83" s="2">
+        <v>59.9153</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10.7553</v>
+      </c>
+      <c r="D83" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B84" s="2">
+        <v>59.9163</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10.7538</v>
+      </c>
+      <c r="D84" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B85" s="2">
+        <v>59.9111</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10.7639</v>
+      </c>
+      <c r="D85" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B86" s="2">
+        <v>59.9111</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10.7639</v>
+      </c>
+      <c r="D86" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B87" s="2">
+        <v>59.9219</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10.7378</v>
+      </c>
+      <c r="D87" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10.7414</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B89" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10.7414</v>
+      </c>
+      <c r="D89" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B90" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10.7414</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B91" s="2">
+        <v>59.9056</v>
+      </c>
+      <c r="C91" s="2">
+        <v>10.7538</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B92" s="2">
+        <v>59.9047</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B93" s="2">
+        <v>59.4883</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10.3173</v>
+      </c>
+      <c r="D93" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B94" s="2">
+        <v>59.9056</v>
+      </c>
+      <c r="C94" s="2">
+        <v>10.7538</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B95" s="2">
+        <v>59.9056</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10.7538</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B96" s="2">
+        <v>59.9056</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10.7538</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B97" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10.7342</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B98" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C98" s="2">
+        <v>10.7342</v>
+      </c>
+      <c r="D98" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B99" s="2">
+        <v>59.9156</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10.7352</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="2">
+        <v>59.9156</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10.7352</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10.7342</v>
+      </c>
+      <c r="D102" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B103" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B104" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D104" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D105" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B106" s="2">
+        <v>59.9113</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B107" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10.7392</v>
+      </c>
+      <c r="D107" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B108" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D108" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B109" s="2">
+        <v>38.7223</v>
+      </c>
+      <c r="C109" s="2">
+        <v>-9.1393</v>
+      </c>
+      <c r="D109" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B110" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D110" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B111" s="2">
+        <v>59.9067</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10.7344</v>
+      </c>
+      <c r="D111" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B112" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C112" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D112" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B113" s="2">
+        <v>59.9073</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10.7373</v>
+      </c>
+      <c r="D113" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B114" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C114" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D114" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B115" s="2">
+        <v>59.9152</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10.7513</v>
+      </c>
+      <c r="D115" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B116" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10.7485</v>
+      </c>
+      <c r="D116" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B117" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C117" s="2">
+        <v>10.7551</v>
+      </c>
+      <c r="D117" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B118" s="2">
+        <v>59.9133</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10.7417</v>
+      </c>
+      <c r="D118" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B119" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C119" s="2">
+        <v>10.7486</v>
+      </c>
+      <c r="D119" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B120" s="2">
+        <v>59.9074</v>
+      </c>
+      <c r="C120" s="2">
+        <v>10.7339</v>
+      </c>
+      <c r="D120" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B121" s="2">
+        <v>59.6633</v>
+      </c>
+      <c r="C121" s="2">
+        <v>9.65</v>
+      </c>
+      <c r="D121" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B122" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10.7486</v>
+      </c>
+      <c r="D122" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B123" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C123" s="2">
+        <v>10.7486</v>
+      </c>
+      <c r="D123" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B124" s="2">
+        <v>59.9134</v>
+      </c>
+      <c r="C124" s="2">
+        <v>10.7486</v>
+      </c>
+      <c r="D124" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="2">
+        <v>63.4305</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10.3951</v>
+      </c>
+      <c r="D125" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B126" s="2">
+        <v>53.7965</v>
+      </c>
+      <c r="C126" s="2">
+        <v>-1.5463</v>
+      </c>
+      <c r="D126" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B127" s="2">
+        <v>36.5281</v>
+      </c>
+      <c r="C127" s="2">
+        <v>-6.2943</v>
+      </c>
+      <c r="D127" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="2">
+        <v>59.9143</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10.7389</v>
+      </c>
+      <c r="D128" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B129" s="2">
+        <v>52.3555</v>
+      </c>
+      <c r="C129" s="2">
+        <v>-1.1743</v>
+      </c>
+      <c r="D129" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B130" s="2">
+        <v>63.4305</v>
+      </c>
+      <c r="C130" s="2">
+        <v>10.3951</v>
+      </c>
+      <c r="D130" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B2" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B4" s="2">
+        <v>59.9375</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.2731</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B5" s="2">
+        <v>59.9393</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30.3138</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59.9503</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30.3173</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B7" s="2">
+        <v>59.9392</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30.3138</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B8" s="2">
+        <v>59.9339</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30.3538</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40.3953</v>
+      </c>
+      <c r="C9" s="2">
+        <v>49.8822</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="2">
+        <v>52.1583</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.4942</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="2">
+        <v>48.8567</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.3508</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B15" s="2">
+        <v>55.7521</v>
+      </c>
+      <c r="C15" s="2">
+        <v>37.6175</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B16" s="2">
+        <v>55.7522</v>
+      </c>
+      <c r="C16" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B17" s="2">
+        <v>55.7517</v>
+      </c>
+      <c r="C17" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B18" s="2">
+        <v>55.7519</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37.6175</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B19" s="2">
+        <v>55.7518</v>
+      </c>
+      <c r="C19" s="2">
+        <v>37.6174</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B20" s="2">
+        <v>55.7519</v>
+      </c>
+      <c r="C20" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B21" s="2">
+        <v>55.7521</v>
+      </c>
+      <c r="C21" s="2">
+        <v>37.6177</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B22" s="2">
+        <v>55.7519</v>
+      </c>
+      <c r="C22" s="2">
+        <v>37.6175</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B23" s="2">
+        <v>55.7414</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37.5943</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-25.2744</v>
+      </c>
+      <c r="C24" s="2">
+        <v>133.7751</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50.0755</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14.4378</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B26" s="2">
+        <v>47.4979</v>
+      </c>
+      <c r="C26" s="2">
+        <v>19.0402</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B27" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C27" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42.0692</v>
+      </c>
+      <c r="C28" s="2">
+        <v>48.2894</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C29" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B30" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43.0247</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44.6778</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44.0469</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43.0573</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B33" s="2">
+        <v>55.7333</v>
+      </c>
+      <c r="C33" s="2">
+        <v>37.6333</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B34" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B35" s="2">
+        <v>51.6724</v>
+      </c>
+      <c r="C35" s="2">
+        <v>39.1843</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="2">
+        <v>61.524</v>
+      </c>
+      <c r="C36" s="2">
+        <v>105.3188</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42.7333</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44.6667</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B38" s="2">
+        <v>47.0333</v>
+      </c>
+      <c r="C38" s="2">
+        <v>39.0167</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B39" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C39" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B40" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C40" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2">
+        <v>31.9686</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-99.9018</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42.7333</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44.6667</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44.0333</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43.0667</v>
+      </c>
+      <c r="D43" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B44" s="2">
+        <v>40.3667</v>
+      </c>
+      <c r="C44" s="2">
+        <v>49.8353</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43.0167</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44.6667</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43.0411</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44.6673</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B47" s="2">
+        <v>47.2369</v>
+      </c>
+      <c r="C47" s="2">
+        <v>39.7015</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47.7439</v>
+      </c>
+      <c r="C48" s="2">
+        <v>39.7943</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B49" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45.85</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40.1167</v>
+      </c>
+      <c r="D50" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43.9833</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44.9833</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41.1167</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B53" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C53" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B54" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C54" s="2">
+        <v>37.6176</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B55" s="2">
+        <v>67.2829</v>
+      </c>
+      <c r="C55" s="2">
+        <v>14.4381</v>
+      </c>
+      <c r="D55" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44.0165</v>
+      </c>
+      <c r="C56" s="2">
+        <v>21.0059</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45.4642</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9.1895</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43.6043</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5.3775</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B59" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C59" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42.3594</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44.7064</v>
+      </c>
+      <c r="D60" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44.0469</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43.0591</v>
+      </c>
+      <c r="D61" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43.0244</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44.6778</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43.1932</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44.5333</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44.5333</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44.5333</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42.0673</v>
+      </c>
+      <c r="C65" s="2">
+        <v>48.2892</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B66" s="2">
+        <v>39.0742</v>
+      </c>
+      <c r="C66" s="2">
+        <v>22.3419</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44.05</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43.06</v>
+      </c>
+      <c r="D68" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43.05</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44.65</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B70" s="2">
+        <v>41.72</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44.83</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B72" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B73" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B74" s="2">
+        <v>60.17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>24.93</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B76" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B77" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43.0242</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44.6778</v>
+      </c>
+      <c r="D78" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43.2333</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44.55</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43.2333</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45.05</v>
+      </c>
+      <c r="C82" s="2">
+        <v>37.3333</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43.1667</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D83" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43.1833</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D84" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43.2333</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D85" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B86" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>29.7667</v>
+      </c>
+      <c r="D86" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B88" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C88" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B89" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B90" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="C90" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B91" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="C91" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B92" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="C92" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D92" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B93" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>-105.5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B94" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B96" s="2">
+        <v>40.3667</v>
+      </c>
+      <c r="C96" s="2">
+        <v>49.85</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B97" s="2">
+        <v>39.7</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43.2333</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43.55</v>
+      </c>
+      <c r="D99" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B100" s="2">
+        <v>42.6969</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44.6401</v>
+      </c>
+      <c r="D100" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="2">
+        <v>63.4305</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10.3951</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B102" s="2">
+        <v>39.9333</v>
+      </c>
+      <c r="C102" s="2">
+        <v>32.8667</v>
+      </c>
+      <c r="D102" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B103" s="2">
+        <v>42.5569</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44.4936</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C104" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D104" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="2">
+        <v>40.0691</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45.0382</v>
+      </c>
+      <c r="D105" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C106" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="D106" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41.1579</v>
+      </c>
+      <c r="C107" s="2">
+        <v>-8.6291</v>
+      </c>
+      <c r="D107" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B108" s="2">
+        <v>48.1174</v>
+      </c>
+      <c r="C108" s="2">
+        <v>-1.6778</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44.0167</v>
+      </c>
+      <c r="C109" s="2">
+        <v>21.0056</v>
+      </c>
+      <c r="D109" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="2">
+        <v>52.3555</v>
+      </c>
+      <c r="C110" s="2">
+        <v>-1.1743</v>
+      </c>
+      <c r="D110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B112" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="C112" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" s="2">
+        <v>59.9139</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10.7522</v>
+      </c>
+      <c r="D116" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42.3544</v>
+      </c>
+      <c r="C117" s="2">
+        <v>43.9855</v>
+      </c>
+      <c r="D117" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43.5958</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44.0139</v>
+      </c>
+      <c r="D118" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B119" s="2">
+        <v>42.3544</v>
+      </c>
+      <c r="C119" s="2">
+        <v>47.9917</v>
+      </c>
+      <c r="D119" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42.6979</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44.5194</v>
+      </c>
+      <c r="D120" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43.0247</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44.6678</v>
+      </c>
+      <c r="D121" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44.0464</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43.0591</v>
+      </c>
+      <c r="D122" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B123" s="2">
+        <v>60.1699</v>
+      </c>
+      <c r="C123" s="2">
+        <v>24.9384</v>
+      </c>
+      <c r="D123" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43.0242</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44.6778</v>
+      </c>
+      <c r="D124" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B125" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44.8271</v>
+      </c>
+      <c r="D125" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B126" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C126" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D126" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44.0347</v>
+      </c>
+      <c r="C127" s="2">
+        <v>43.0574</v>
+      </c>
+      <c r="D127" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B128" s="2">
+        <v>42.1736</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44.6586</v>
+      </c>
+      <c r="D128" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B129" s="2">
+        <v>42.1736</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44.6586</v>
+      </c>
+      <c r="D129" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B130" s="2">
+        <v>59.9386</v>
+      </c>
+      <c r="C130" s="2">
+        <v>30.3141</v>
+      </c>
+      <c r="D130" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="2">
+        <v>40.7128</v>
+      </c>
+      <c r="C131" s="2">
+        <v>74.006</v>
+      </c>
+      <c r="D131" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B132" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D132" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43.0167</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44.65</v>
+      </c>
+      <c r="D133" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B134" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D134" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B135" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C135" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D135" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B136" s="2">
+        <v>59.9503</v>
+      </c>
+      <c r="C136" s="2">
+        <v>30.3176</v>
+      </c>
+      <c r="D136" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B137" s="2">
+        <v>41.1495</v>
+      </c>
+      <c r="C137" s="2">
+        <v>-8.6107</v>
+      </c>
+      <c r="D137" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43.0256</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44.6803</v>
+      </c>
+      <c r="D138" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B139" s="2">
+        <v>48.1374</v>
+      </c>
+      <c r="C139" s="2">
+        <v>11.5755</v>
+      </c>
+      <c r="D139" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44.0333</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43.05</v>
+      </c>
+      <c r="D140" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="C141" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="D141" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D142" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" s="2">
+        <v>40.3667</v>
+      </c>
+      <c r="C143" s="2">
+        <v>49.8353</v>
+      </c>
+      <c r="D143" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="D144" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="D145" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B146" s="2">
+        <v>41.6333</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45.0333</v>
+      </c>
+      <c r="D146" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42.3333</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44.7333</v>
+      </c>
+      <c r="D147" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B148" s="2">
+        <v>41.8719</v>
+      </c>
+      <c r="C148" s="2">
+        <v>12.4964</v>
+      </c>
+      <c r="D148" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B149" s="2">
+        <v>41.6969</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44.785</v>
+      </c>
+      <c r="D149" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C150" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C151" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152" s="2">
+        <v>51.5074</v>
+      </c>
+      <c r="C152" s="2">
+        <v>-0.1278</v>
+      </c>
+      <c r="D152" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="2">
+        <v>55.6761</v>
+      </c>
+      <c r="C153" s="2">
+        <v>12.5683</v>
+      </c>
+      <c r="D153" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B154" s="2">
+        <v>41.6969</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44.785</v>
+      </c>
+      <c r="D154" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B155" s="2">
+        <v>41.6969</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44.785</v>
+      </c>
+      <c r="D155" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42.5667</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44.4667</v>
+      </c>
+      <c r="D156" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="D157" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B158" s="2">
+        <v>41.7833</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44.7333</v>
+      </c>
+      <c r="D158" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B159" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D159" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B160" s="2">
+        <v>41.8719</v>
+      </c>
+      <c r="C160" s="2">
+        <v>12.4964</v>
+      </c>
+      <c r="D160" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B161" s="2">
+        <v>52.52</v>
+      </c>
+      <c r="C161" s="2">
+        <v>13.405</v>
+      </c>
+      <c r="D161" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="2">
+        <v>61.6667</v>
+      </c>
+      <c r="C162" s="2">
+        <v>9.0667</v>
+      </c>
+      <c r="D162" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B163" s="2">
+        <v>48.1374</v>
+      </c>
+      <c r="C163" s="2">
+        <v>11.5755</v>
+      </c>
+      <c r="D163" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B164" s="2">
+        <v>41.7223</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44.7927</v>
+      </c>
+      <c r="D164" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B165" s="2">
+        <v>35.6892</v>
+      </c>
+      <c r="C165" s="2">
+        <v>51.389</v>
+      </c>
+      <c r="D165" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B166" s="2">
+        <v>41.0082</v>
+      </c>
+      <c r="C166" s="2">
+        <v>28.975</v>
+      </c>
+      <c r="D166" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B167" s="2">
+        <v>31.7833</v>
+      </c>
+      <c r="C167" s="2">
+        <v>35.2167</v>
+      </c>
+      <c r="D167" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B168" s="2">
+        <v>29.6466</v>
+      </c>
+      <c r="C168" s="2">
+        <v>91.1183</v>
+      </c>
+      <c r="D168" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B169" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C169" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B170" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B171" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C171" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B172" s="2">
+        <v>34.0833</v>
+      </c>
+      <c r="C172" s="2">
+        <v>74.7833</v>
+      </c>
+      <c r="D172" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B173" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C173" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B174" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="C174" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B175" s="2">
+        <v>39.6542</v>
+      </c>
+      <c r="C175" s="2">
+        <v>66.9597</v>
+      </c>
+      <c r="D175" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B176" s="2">
+        <v>39.7747</v>
+      </c>
+      <c r="C176" s="2">
+        <v>64.4275</v>
+      </c>
+      <c r="D176" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B177" s="2">
+        <v>30.0626</v>
+      </c>
+      <c r="C177" s="2">
+        <v>31.2497</v>
+      </c>
+      <c r="D177" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B178" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C178" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D178" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" s="2">
+        <v>21.4167</v>
+      </c>
+      <c r="C179" s="2">
+        <v>39.8167</v>
+      </c>
+      <c r="D179" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B180" s="2">
+        <v>41.7223</v>
+      </c>
+      <c r="C180" s="2">
+        <v>44.7927</v>
+      </c>
+      <c r="D180" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B181" s="2">
+        <v>39.7</v>
+      </c>
+      <c r="C181" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="D181" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B182" s="2">
+        <v>21.1458</v>
+      </c>
+      <c r="C182" s="2">
+        <v>78.2292</v>
+      </c>
+      <c r="D182" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B183" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="C183" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B184" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B185" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="D185" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B186" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="C186" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="D186" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B187" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="C187" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B188" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="C188" s="2">
+        <v>88.0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B189" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="C189" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="D189" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B190" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C190" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B191" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C191" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B192" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="C192" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="D192" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B193" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="C193" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="C194" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="D194" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B195" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="C195" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="D195" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B196" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C196" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="D196" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B197" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="C197" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="D197" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B198" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="C198" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="D198" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B199" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C199" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="D199" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B200" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="C200" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="D200" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B201" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="C201" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B202" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="C202" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="D202" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B203" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="C203" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D203" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B204" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="C204" s="2">
+        <v>16.4</v>
+      </c>
+      <c r="D204" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B205" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C205" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D205" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B206" s="2">
+        <v>40.45</v>
+      </c>
+      <c r="C206" s="2">
+        <v>49.95</v>
+      </c>
+      <c r="D206" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B207" s="2">
+        <v>40.3333</v>
+      </c>
+      <c r="C207" s="2">
+        <v>49.4667</v>
+      </c>
+      <c r="D207" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B208" s="2">
+        <v>40.4333</v>
+      </c>
+      <c r="C208" s="2">
+        <v>50.0333</v>
+      </c>
+      <c r="D208" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B209" s="2">
+        <v>41.7167</v>
+      </c>
+      <c r="C209" s="2">
+        <v>44.7833</v>
+      </c>
+      <c r="D209" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B210" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="C210" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B211" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="C211" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B212" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="C212" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B213" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="C213" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="D213" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B214" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C214" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B215" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C215" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B216" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C216" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B217" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C217" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B218" s="2">
+        <v>24.47</v>
+      </c>
+      <c r="C218" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="D218" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B219" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C219" s="2">
+        <v>-100.0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B220" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C220" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D220" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B221" s="2">
+        <v>41.7221</v>
+      </c>
+      <c r="C221" s="2">
+        <v>44.7927</v>
+      </c>
+      <c r="D221" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B222" s="2">
+        <v>39.7747</v>
+      </c>
+      <c r="C222" s="2">
+        <v>64.4275</v>
+      </c>
+      <c r="D222" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B223" s="2">
+        <v>24.4686</v>
+      </c>
+      <c r="C223" s="2">
+        <v>39.6093</v>
+      </c>
+      <c r="D223" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B224" s="2">
+        <v>41.0083</v>
+      </c>
+      <c r="C224" s="2">
+        <v>28.975</v>
+      </c>
+      <c r="D224" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B225" s="2">
+        <v>33.5131</v>
+      </c>
+      <c r="C225" s="2">
+        <v>36.2913</v>
+      </c>
+      <c r="D225" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B226" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C226" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D226" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B227" s="2">
+        <v>41.6167</v>
+      </c>
+      <c r="C227" s="2">
+        <v>41.6333</v>
+      </c>
+      <c r="D227" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B228" s="2">
+        <v>43.2964</v>
+      </c>
+      <c r="C228" s="2">
+        <v>34.4419</v>
+      </c>
+      <c r="D228" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" s="2">
+        <v>48.8567</v>
+      </c>
+      <c r="C229" s="2">
+        <v>2.3508</v>
+      </c>
+      <c r="D229" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B230" s="2">
+        <v>59.939</v>
+      </c>
+      <c r="C230" s="2">
+        <v>30.3158</v>
+      </c>
+      <c r="D230" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B231" s="2">
+        <v>55.7558</v>
+      </c>
+      <c r="C231" s="2">
+        <v>37.6173</v>
+      </c>
+      <c r="D231" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B232" s="2">
+        <v>43.0243</v>
+      </c>
+      <c r="C232" s="2">
+        <v>44.6778</v>
+      </c>
+      <c r="D232" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B233" s="2">
+        <v>41.7151</v>
+      </c>
+      <c r="C233" s="2">
+        <v>44.8277</v>
+      </c>
+      <c r="D233" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B234" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C234" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D234" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B235" s="2">
+        <v>41.6333</v>
+      </c>
+      <c r="C235" s="2">
+        <v>41.6333</v>
+      </c>
+      <c r="D235" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B236" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="C236" s="2">
+        <v>29.9167</v>
+      </c>
+      <c r="D236" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B237" s="2">
+        <v>43.2965</v>
+      </c>
+      <c r="C237" s="2">
+        <v>5.3698</v>
+      </c>
+      <c r="D237" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B238" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C238" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D238" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B239" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C239" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D239" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B240" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D240" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B241" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="C241" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D241" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B242" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C242" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="D242" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B243" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="C243" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="D243" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B244" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C244" s="2">
+        <v>-98.0</v>
+      </c>
+      <c r="D244" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B245" s="2">
+        <v>40.4093</v>
+      </c>
+      <c r="C245" s="2">
+        <v>49.8671</v>
+      </c>
+      <c r="D245" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B246" s="2">
+        <v>43.2964</v>
+      </c>
+      <c r="C246" s="2">
+        <v>34.0253</v>
+      </c>
+      <c r="D246" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B247" s="2">
+        <v>41.6833</v>
+      </c>
+      <c r="C247" s="2">
+        <v>44.8333</v>
+      </c>
+      <c r="D247" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" s="2">
+        <v>46.4775</v>
+      </c>
+      <c r="C248" s="2">
+        <v>30.7326</v>
+      </c>
+      <c r="D248" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B249" s="2">
+        <v>39.2869</v>
+      </c>
+      <c r="C249" s="2">
+        <v>49.4264</v>
+      </c>
+      <c r="D249" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="250"/>
     <row r="251"/>
     <row r="252"/>
